--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T15:41:40-03:00</t>
+    <t>2024-01-08T08:41:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T08:41:20-03:00</t>
+    <t>2024-02-15T09:17:26-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T09:17:26-03:00</t>
+    <t>2024-02-15T14:15:38-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.6</t>
+    <t>1.8.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T14:15:38-03:00</t>
+    <t>2024-02-19T16:06:45-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T16:06:45-03:00</t>
+    <t>2024-05-08T11:32:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -2497,17 +2497,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.76953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.5390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.19921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.51953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.71484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2516,27 +2516,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.9453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.93359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="74.1484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.55859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.48046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="74.07421875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="151.51171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="39.390625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="54.296875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.4375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="153.5546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="39.8515625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="54.6015625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="35.6015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T11:32:37-04:00</t>
+    <t>2024-05-08T11:46:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T16:06:45-03:00</t>
+    <t>2024-03-04T15:29:29-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.8.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T11:46:20-04:00</t>
+    <t>2024-06-13T17:23:26-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -663,10 +663,10 @@
     <t>Se usa esta extensión para agregarle al tipo de documento el país de origen de este</t>
   </si>
   <si>
-    <t>Patient.identifier.type.extension:paises</t>
-  </si>
-  <si>
-    <t>paises</t>
+    <t>Patient.identifier.type.extension:paisEmisionDocumento</t>
+  </si>
+  <si>
+    <t>paisEmisionDocumento</t>
   </si>
   <si>
     <t>Patient.identifier.type.coding</t>
@@ -2499,7 +2499,7 @@
   <cols>
     <col min="1" max="1" width="57.51953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.71484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.13671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.8.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T11:46:20-04:00</t>
+    <t>2024-06-17T14:21:27-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -663,10 +663,10 @@
     <t>Se usa esta extensión para agregarle al tipo de documento el país de origen de este</t>
   </si>
   <si>
-    <t>Patient.identifier.type.extension:paises</t>
-  </si>
-  <si>
-    <t>paises</t>
+    <t>Patient.identifier.type.extension:paisEmisionDocumento</t>
+  </si>
+  <si>
+    <t>paisEmisionDocumento</t>
   </si>
   <si>
     <t>Patient.identifier.type.coding</t>
@@ -2499,7 +2499,7 @@
   <cols>
     <col min="1" max="1" width="57.51953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.71484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.13671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4633" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4634" uniqueCount="698">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.11</t>
+    <t>1.8.12</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:21:27-04:00</t>
+    <t>2024-06-21T18:30:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -495,14 +495,14 @@
     <t>nacionalidad</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CodigoPaises}
+    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/Nacionalidad}
 </t>
   </si>
   <si>
-    <t>Codigo de Identificación de países</t>
-  </si>
-  <si>
-    <t>Esta extensión incluye códigos de paises de origen</t>
+    <t>Codigo de Nacionalidad</t>
+  </si>
+  <si>
+    <t>Esta extensión incluye códigos de nacionalidad que pueda tener un pacient</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -581,6 +581,12 @@
     <t>Patient.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
@@ -593,7 +599,7 @@
     <t>usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
-    <t>Se definirá este uso siempre como "official" debido a que cualquier ID presentado para motivos de este perfil deb ser de este tipo</t>
+    <t>De contar el Paciente con una Cédula de Identidad Nacional, se sugiere el uso de esta como identificador</t>
   </si>
   <si>
     <t>Se definirá como official pues en una primera etapa solo se considerarán los identidicadores en esa categoría. Para una segunda etapa se abrirá este elemento para cualquier clase de identificador</t>
@@ -669,6 +675,16 @@
     <t>paisEmisionDocumento</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/PaisEmision}
+</t>
+  </si>
+  <si>
+    <t>Código de la Emición de un Identificador</t>
+  </si>
+  <si>
+    <t>Esta extensión incluye los códigos de paises de emición de un documento</t>
+  </si>
+  <si>
     <t>Patient.identifier.type.coding</t>
   </si>
   <si>
@@ -701,12 +717,6 @@
   </si>
   <si>
     <t>Patient.identifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Patient.identifier.type.coding.system</t>
@@ -1777,7 +1787,7 @@
     <t>Nombre registrado oficialmente en el Registro Civil</t>
   </si>
   <si>
-    <t>El use DEBE ser de valor de código ´official´</t>
+    <t>El use DEBE ser de valor de código "official"</t>
   </si>
   <si>
     <t>Patient.contact.name.text</t>
@@ -1993,7 +2003,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl)
 </t>
   </si>
   <si>
@@ -2507,7 +2517,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.65625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="139.3359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4305,7 +4315,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4315,7 +4325,7 @@
         <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>82</v>
@@ -4327,12 +4337,14 @@
         <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4372,7 +4384,7 @@
         <v>138</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>82</v>
@@ -4381,7 +4393,7 @@
         <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4396,7 +4408,7 @@
         <v>141</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>82</v>
@@ -4413,10 +4425,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4442,16 +4454,16 @@
         <v>110</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -4476,13 +4488,13 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -4500,7 +4512,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4515,7 +4527,7 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>82</v>
@@ -4532,10 +4544,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4558,19 +4570,19 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -4595,13 +4607,13 @@
         <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -4619,7 +4631,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4634,7 +4646,7 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>82</v>
@@ -4643,7 +4655,7 @@
         <v>82</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>82</v>
@@ -4651,10 +4663,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4766,10 +4778,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4795,10 +4807,10 @@
         <v>135</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4840,7 +4852,7 @@
         <v>138</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>82</v>
@@ -4849,7 +4861,7 @@
         <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4881,13 +4893,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>82</v>
@@ -4909,13 +4921,13 @@
         <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4966,7 +4978,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4998,10 +5010,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5024,19 +5036,19 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -5085,7 +5097,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5100,7 +5112,7 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
@@ -5109,7 +5121,7 @@
         <v>82</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -5117,10 +5129,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5232,10 +5244,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5261,10 +5273,10 @@
         <v>135</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>160</v>
@@ -5308,7 +5320,7 @@
         <v>138</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>82</v>
@@ -5317,7 +5329,7 @@
         <v>139</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5349,10 +5361,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5378,16 +5390,16 @@
         <v>104</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5436,7 +5448,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5451,7 +5463,7 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>82</v>
@@ -5460,7 +5472,7 @@
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5468,10 +5480,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5497,13 +5509,13 @@
         <v>174</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5553,7 +5565,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5568,7 +5580,7 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>82</v>
@@ -5577,7 +5589,7 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5585,10 +5597,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5614,14 +5626,14 @@
         <v>110</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5670,7 +5682,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5685,7 +5697,7 @@
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>82</v>
@@ -5694,7 +5706,7 @@
         <v>82</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5702,10 +5714,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5731,14 +5743,14 @@
         <v>174</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5787,7 +5799,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5802,7 +5814,7 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>82</v>
@@ -5811,7 +5823,7 @@
         <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5819,10 +5831,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5845,19 +5857,19 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5906,7 +5918,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5921,7 +5933,7 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>82</v>
@@ -5930,7 +5942,7 @@
         <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5938,10 +5950,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5967,16 +5979,16 @@
         <v>174</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -6025,7 +6037,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6040,7 +6052,7 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>82</v>
@@ -6049,7 +6061,7 @@
         <v>82</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -6057,10 +6069,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6086,16 +6098,16 @@
         <v>104</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6108,7 +6120,7 @@
         <v>82</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>82</v>
@@ -6144,7 +6156,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6159,7 +6171,7 @@
         <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
@@ -6168,7 +6180,7 @@
         <v>82</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6176,10 +6188,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6205,13 +6217,13 @@
         <v>174</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6225,7 +6237,7 @@
         <v>82</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>82</v>
@@ -6261,7 +6273,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6276,7 +6288,7 @@
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
@@ -6285,7 +6297,7 @@
         <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -6293,10 +6305,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6319,13 +6331,13 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6376,7 +6388,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6391,7 +6403,7 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>82</v>
@@ -6400,7 +6412,7 @@
         <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6408,10 +6420,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6434,16 +6446,16 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6493,7 +6505,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6508,7 +6520,7 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>82</v>
@@ -6517,7 +6529,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6525,10 +6537,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6551,70 +6563,70 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N35" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q35" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q35" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6629,13 +6641,13 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>178</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>82</v>
@@ -6646,10 +6658,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6672,19 +6684,19 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6721,10 +6733,10 @@
         <v>82</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>82</v>
@@ -6733,7 +6745,7 @@
         <v>139</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6748,16 +6760,16 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6765,13 +6777,13 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>82</v>
@@ -6793,19 +6805,19 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6854,7 +6866,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6869,16 +6881,16 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6886,10 +6898,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7001,10 +7013,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7030,10 +7042,10 @@
         <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>160</v>
@@ -7077,7 +7089,7 @@
         <v>138</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>82</v>
@@ -7086,7 +7098,7 @@
         <v>139</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7118,10 +7130,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7147,16 +7159,16 @@
         <v>110</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7166,7 +7178,7 @@
         <v>82</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>82</v>
@@ -7181,13 +7193,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -7205,7 +7217,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7220,7 +7232,7 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
@@ -7229,7 +7241,7 @@
         <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7237,10 +7249,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7266,16 +7278,16 @@
         <v>174</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7324,7 +7336,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7339,7 +7351,7 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
@@ -7348,7 +7360,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7356,14 +7368,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7385,13 +7397,13 @@
         <v>174</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7441,7 +7453,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7456,7 +7468,7 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>82</v>
@@ -7465,7 +7477,7 @@
         <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7473,10 +7485,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7502,10 +7514,10 @@
         <v>174</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7588,10 +7600,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7617,10 +7629,10 @@
         <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7669,7 +7681,7 @@
         <v>139</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7701,13 +7713,13 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="B45" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="C45" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>82</v>
@@ -7729,13 +7741,13 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7786,7 +7798,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7818,10 +7830,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7847,10 +7859,10 @@
         <v>174</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7874,7 +7886,7 @@
         <v>82</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="X46" t="s" s="2">
         <v>82</v>
@@ -7901,7 +7913,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7933,14 +7945,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7962,13 +7974,13 @@
         <v>174</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8018,7 +8030,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8033,7 +8045,7 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>82</v>
@@ -8042,7 +8054,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8050,10 +8062,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8079,10 +8091,10 @@
         <v>174</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8133,7 +8145,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8148,7 +8160,7 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>82</v>
@@ -8157,7 +8169,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8165,10 +8177,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8194,10 +8206,10 @@
         <v>174</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8248,7 +8260,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8263,7 +8275,7 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>82</v>
@@ -8272,7 +8284,7 @@
         <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8280,10 +8292,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8306,17 +8318,17 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8365,7 +8377,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8380,7 +8392,7 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>82</v>
@@ -8389,7 +8401,7 @@
         <v>82</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8397,13 +8409,13 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>82</v>
@@ -8425,19 +8437,19 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8486,7 +8498,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8501,16 +8513,16 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8518,10 +8530,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8633,10 +8645,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8662,10 +8674,10 @@
         <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>160</v>
@@ -8709,7 +8721,7 @@
         <v>138</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>82</v>
@@ -8718,7 +8730,7 @@
         <v>139</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8750,10 +8762,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8779,16 +8791,16 @@
         <v>110</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8798,7 +8810,7 @@
         <v>82</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>82</v>
@@ -8813,13 +8825,13 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
@@ -8837,7 +8849,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8852,7 +8864,7 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>82</v>
@@ -8861,7 +8873,7 @@
         <v>82</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8869,10 +8881,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8898,16 +8910,16 @@
         <v>174</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8956,7 +8968,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8971,7 +8983,7 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>82</v>
@@ -8980,7 +8992,7 @@
         <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8988,14 +9000,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -9017,13 +9029,13 @@
         <v>174</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9073,7 +9085,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9088,7 +9100,7 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>82</v>
@@ -9097,7 +9109,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -9105,14 +9117,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9134,13 +9146,13 @@
         <v>174</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9190,7 +9202,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9205,7 +9217,7 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>82</v>
@@ -9214,7 +9226,7 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9222,10 +9234,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9251,10 +9263,10 @@
         <v>174</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9305,7 +9317,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9320,7 +9332,7 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>82</v>
@@ -9329,7 +9341,7 @@
         <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9337,10 +9349,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9366,10 +9378,10 @@
         <v>174</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9420,7 +9432,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9435,7 +9447,7 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>82</v>
@@ -9444,7 +9456,7 @@
         <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9452,10 +9464,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9478,17 +9490,17 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9537,7 +9549,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9552,7 +9564,7 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>82</v>
@@ -9561,7 +9573,7 @@
         <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9569,10 +9581,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9595,19 +9607,19 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9656,7 +9668,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9671,16 +9683,16 @@
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9688,10 +9700,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9803,10 +9815,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9832,10 +9844,10 @@
         <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>160</v>
@@ -9879,7 +9891,7 @@
         <v>138</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>82</v>
@@ -9888,7 +9900,7 @@
         <v>139</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9920,10 +9932,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9949,10 +9961,10 @@
         <v>110</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9979,13 +9991,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -10003,7 +10015,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10012,13 +10024,13 @@
         <v>90</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>82</v>
@@ -10027,7 +10039,7 @@
         <v>82</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10035,10 +10047,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10064,16 +10076,16 @@
         <v>174</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10122,7 +10134,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10137,7 +10149,7 @@
         <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>82</v>
@@ -10146,7 +10158,7 @@
         <v>82</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10154,10 +10166,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10183,16 +10195,16 @@
         <v>110</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10217,11 +10229,11 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10239,7 +10251,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10254,7 +10266,7 @@
         <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>82</v>
@@ -10263,7 +10275,7 @@
         <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10271,10 +10283,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10297,16 +10309,16 @@
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10356,7 +10368,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10388,10 +10400,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10414,13 +10426,13 @@
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10471,7 +10483,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10486,7 +10498,7 @@
         <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>82</v>
@@ -10503,10 +10515,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10532,16 +10544,16 @@
         <v>110</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10566,13 +10578,13 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
@@ -10590,7 +10602,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10605,16 +10617,16 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10622,10 +10634,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10648,19 +10660,19 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10709,7 +10721,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10724,27 +10736,27 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10767,19 +10779,19 @@
         <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10828,7 +10840,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10843,7 +10855,7 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>178</v>
@@ -10852,7 +10864,7 @@
         <v>82</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10860,10 +10872,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10886,19 +10898,19 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10947,7 +10959,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10962,7 +10974,7 @@
         <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>82</v>
@@ -10971,7 +10983,7 @@
         <v>82</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -10979,10 +10991,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11005,17 +11017,17 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11040,13 +11052,13 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
@@ -11064,7 +11076,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11079,16 +11091,16 @@
         <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11096,10 +11108,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11122,19 +11134,19 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11183,7 +11195,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11198,7 +11210,7 @@
         <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>178</v>
@@ -11207,7 +11219,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11215,10 +11227,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11241,19 +11253,19 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11302,7 +11314,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11317,7 +11329,7 @@
         <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>178</v>
@@ -11326,7 +11338,7 @@
         <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11334,10 +11346,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11360,19 +11372,19 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11421,7 +11433,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11433,10 +11445,10 @@
         <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>178</v>
@@ -11453,10 +11465,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11568,10 +11580,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11649,7 +11661,7 @@
         <v>139</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11681,13 +11693,13 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>82</v>
@@ -11709,13 +11721,13 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11766,7 +11778,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11798,14 +11810,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11827,10 +11839,10 @@
         <v>135</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="N80" t="s" s="2">
         <v>160</v>
@@ -11885,7 +11897,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11917,10 +11929,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11943,17 +11955,17 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -11978,13 +11990,13 @@
         <v>82</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
@@ -12002,7 +12014,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12017,7 +12029,7 @@
         <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>178</v>
@@ -12026,7 +12038,7 @@
         <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12034,10 +12046,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12149,10 +12161,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12178,10 +12190,10 @@
         <v>135</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>160</v>
@@ -12225,7 +12237,7 @@
         <v>138</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>82</v>
@@ -12234,7 +12246,7 @@
         <v>139</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12266,10 +12278,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12292,19 +12304,19 @@
         <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
@@ -12353,7 +12365,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12368,7 +12380,7 @@
         <v>102</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>82</v>
@@ -12377,7 +12389,7 @@
         <v>82</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12385,10 +12397,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12414,16 +12426,16 @@
         <v>174</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12472,7 +12484,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12487,7 +12499,7 @@
         <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>82</v>
@@ -12496,7 +12508,7 @@
         <v>82</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12504,10 +12516,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12530,17 +12542,17 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12589,7 +12601,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12604,7 +12616,7 @@
         <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>178</v>
@@ -12613,7 +12625,7 @@
         <v>82</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12621,10 +12633,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12736,10 +12748,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12765,10 +12777,10 @@
         <v>135</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>160</v>
@@ -12812,7 +12824,7 @@
         <v>138</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>82</v>
@@ -12821,7 +12833,7 @@
         <v>139</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12853,10 +12865,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12882,16 +12894,16 @@
         <v>110</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -12901,7 +12913,7 @@
         <v>82</v>
       </c>
       <c r="S89" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="T89" t="s" s="2">
         <v>82</v>
@@ -12916,13 +12928,13 @@
         <v>82</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>82</v>
@@ -12940,7 +12952,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12955,7 +12967,7 @@
         <v>102</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>82</v>
@@ -12964,7 +12976,7 @@
         <v>82</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -12972,10 +12984,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13001,16 +13013,16 @@
         <v>174</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13059,7 +13071,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13074,7 +13086,7 @@
         <v>102</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>82</v>
@@ -13083,7 +13095,7 @@
         <v>82</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13091,14 +13103,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13120,13 +13132,13 @@
         <v>174</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13176,7 +13188,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13191,7 +13203,7 @@
         <v>102</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>82</v>
@@ -13200,7 +13212,7 @@
         <v>82</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13208,10 +13220,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13237,10 +13249,10 @@
         <v>174</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13323,10 +13335,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13352,10 +13364,10 @@
         <v>135</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13404,7 +13416,7 @@
         <v>139</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13436,13 +13448,13 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>82</v>
@@ -13464,13 +13476,13 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13521,7 +13533,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13553,10 +13565,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13582,10 +13594,10 @@
         <v>174</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13609,7 +13621,7 @@
         <v>82</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="X95" t="s" s="2">
         <v>82</v>
@@ -13636,7 +13648,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13668,14 +13680,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13697,13 +13709,13 @@
         <v>174</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13753,7 +13765,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13768,7 +13780,7 @@
         <v>102</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>82</v>
@@ -13777,7 +13789,7 @@
         <v>82</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -13785,10 +13797,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13814,10 +13826,10 @@
         <v>174</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13868,7 +13880,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13883,7 +13895,7 @@
         <v>102</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>82</v>
@@ -13892,7 +13904,7 @@
         <v>82</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -13900,10 +13912,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13929,10 +13941,10 @@
         <v>174</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13983,7 +13995,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -13998,7 +14010,7 @@
         <v>102</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>82</v>
@@ -14007,7 +14019,7 @@
         <v>82</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14015,10 +14027,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14041,17 +14053,17 @@
         <v>91</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14100,7 +14112,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14115,7 +14127,7 @@
         <v>102</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>82</v>
@@ -14124,7 +14136,7 @@
         <v>82</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14132,10 +14144,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14158,19 +14170,19 @@
         <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14219,7 +14231,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14234,7 +14246,7 @@
         <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>178</v>
@@ -14243,7 +14255,7 @@
         <v>82</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14251,10 +14263,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14277,17 +14289,17 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
@@ -14336,7 +14348,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14351,7 +14363,7 @@
         <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>178</v>
@@ -14360,7 +14372,7 @@
         <v>82</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14368,10 +14380,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14397,14 +14409,14 @@
         <v>110</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14429,13 +14441,13 @@
         <v>82</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>82</v>
@@ -14453,7 +14465,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14468,7 +14480,7 @@
         <v>102</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>178</v>
@@ -14477,7 +14489,7 @@
         <v>82</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14485,10 +14497,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14511,17 +14523,17 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14570,7 +14582,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14579,13 +14591,13 @@
         <v>90</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>178</v>
@@ -14594,7 +14606,7 @@
         <v>82</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14602,10 +14614,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14628,13 +14640,13 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14685,7 +14697,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14700,7 +14712,7 @@
         <v>102</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>178</v>
@@ -14717,10 +14729,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14743,19 +14755,19 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -14804,7 +14816,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -14819,10 +14831,10 @@
         <v>102</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>82</v>
@@ -14836,10 +14848,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14951,10 +14963,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14980,10 +14992,10 @@
         <v>135</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="N107" t="s" s="2">
         <v>160</v>
@@ -15036,7 +15048,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15068,14 +15080,14 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15097,10 +15109,10 @@
         <v>135</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="N108" t="s" s="2">
         <v>160</v>
@@ -15155,7 +15167,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15187,10 +15199,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15213,19 +15225,19 @@
         <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15250,13 +15262,13 @@
         <v>82</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>82</v>
@@ -15274,7 +15286,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>90</v>
@@ -15289,16 +15301,16 @@
         <v>102</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15306,10 +15318,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15332,19 +15344,19 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15393,7 +15405,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15408,16 +15420,16 @@
         <v>102</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15425,14 +15437,14 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15451,16 +15463,16 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15510,7 +15522,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15525,7 +15537,7 @@
         <v>102</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>178</v>
@@ -15534,7 +15546,7 @@
         <v>82</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15542,10 +15554,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15657,10 +15669,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15686,10 +15698,10 @@
         <v>135</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="N113" t="s" s="2">
         <v>160</v>
@@ -15733,7 +15745,7 @@
         <v>138</v>
       </c>
       <c r="AC113" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AD113" t="s" s="2">
         <v>82</v>
@@ -15742,7 +15754,7 @@
         <v>139</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -15774,10 +15786,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15803,13 +15815,13 @@
         <v>174</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -15859,7 +15871,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -15868,7 +15880,7 @@
         <v>90</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>102</v>
@@ -15891,10 +15903,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15920,13 +15932,13 @@
         <v>104</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -15952,13 +15964,13 @@
         <v>82</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>82</v>
@@ -15976,7 +15988,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16008,10 +16020,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16037,13 +16049,13 @@
         <v>164</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16093,7 +16105,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16108,7 +16120,7 @@
         <v>102</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>82</v>
@@ -16125,10 +16137,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16154,13 +16166,13 @@
         <v>174</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -16210,7 +16222,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16242,10 +16254,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16268,19 +16280,19 @@
         <v>91</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16329,7 +16341,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16344,10 +16356,10 @@
         <v>102</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>82</v>
@@ -16361,10 +16373,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16387,19 +16399,19 @@
         <v>91</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -16448,7 +16460,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16463,7 +16475,7 @@
         <v>102</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>178</v>
@@ -16480,10 +16492,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16595,10 +16607,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16624,10 +16636,10 @@
         <v>135</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="N121" t="s" s="2">
         <v>160</v>
@@ -16680,7 +16692,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -16712,14 +16724,14 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -16741,10 +16753,10 @@
         <v>135</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="N122" t="s" s="2">
         <v>160</v>
@@ -16799,7 +16811,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -16831,10 +16843,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16857,16 +16869,16 @@
         <v>91</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -16916,7 +16928,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>90</v>
@@ -16940,7 +16952,7 @@
         <v>82</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -16948,10 +16960,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16977,10 +16989,10 @@
         <v>110</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -17007,31 +17019,31 @@
         <v>82</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="Z124" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF124" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>90</v>
@@ -17046,7 +17058,7 @@
         <v>102</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>178</v>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4634" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4634" uniqueCount="695">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:30:18-04:00</t>
+    <t>2024-06-23T21:41:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -495,14 +495,14 @@
     <t>nacionalidad</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/Nacionalidad}
+    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CodigoPaises}
 </t>
   </si>
   <si>
-    <t>Codigo de Nacionalidad</t>
-  </si>
-  <si>
-    <t>Esta extensión incluye códigos de nacionalidad que pueda tener un pacient</t>
+    <t>Codigo de Paises</t>
+  </si>
+  <si>
+    <t>Esta extensión incluye códigos de paises</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -673,16 +673,6 @@
   </si>
   <si>
     <t>paisEmisionDocumento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/PaisEmision}
-</t>
-  </si>
-  <si>
-    <t>Código de la Emición de un Identificador</t>
-  </si>
-  <si>
-    <t>Esta extensión incluye los códigos de paises de emición de un documento</t>
   </si>
   <si>
     <t>Patient.identifier.type.coding</t>
@@ -4921,13 +4911,13 @@
         <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5010,10 +5000,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5036,19 +5026,19 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -5097,7 +5087,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5112,7 +5102,7 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
@@ -5121,7 +5111,7 @@
         <v>82</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -5129,10 +5119,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5244,10 +5234,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5361,10 +5351,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5390,16 +5380,16 @@
         <v>104</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5448,7 +5438,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5463,7 +5453,7 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>82</v>
@@ -5472,7 +5462,7 @@
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5480,10 +5470,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5509,13 +5499,13 @@
         <v>174</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5565,7 +5555,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5580,7 +5570,7 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>82</v>
@@ -5589,7 +5579,7 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5597,10 +5587,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5626,14 +5616,14 @@
         <v>110</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5682,7 +5672,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5697,7 +5687,7 @@
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>82</v>
@@ -5706,7 +5696,7 @@
         <v>82</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5714,10 +5704,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5743,14 +5733,14 @@
         <v>174</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5799,7 +5789,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5814,7 +5804,7 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>82</v>
@@ -5823,7 +5813,7 @@
         <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5831,10 +5821,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5857,19 +5847,19 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5918,7 +5908,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5933,7 +5923,7 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>82</v>
@@ -5942,7 +5932,7 @@
         <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5950,10 +5940,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5979,16 +5969,16 @@
         <v>174</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -6037,7 +6027,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6052,7 +6042,7 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>82</v>
@@ -6061,7 +6051,7 @@
         <v>82</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -6069,10 +6059,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6098,16 +6088,16 @@
         <v>104</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O31" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6120,7 +6110,7 @@
         <v>82</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>82</v>
@@ -6156,7 +6146,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6171,7 +6161,7 @@
         <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
@@ -6180,7 +6170,7 @@
         <v>82</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6188,10 +6178,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6217,13 +6207,13 @@
         <v>174</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6237,7 +6227,7 @@
         <v>82</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>82</v>
@@ -6273,7 +6263,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6288,7 +6278,7 @@
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
@@ -6297,7 +6287,7 @@
         <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -6305,10 +6295,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6331,13 +6321,13 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6388,7 +6378,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6403,7 +6393,7 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>82</v>
@@ -6412,7 +6402,7 @@
         <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6420,10 +6410,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6446,16 +6436,16 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6505,7 +6495,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6520,7 +6510,7 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>82</v>
@@ -6529,7 +6519,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6537,10 +6527,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6563,26 +6553,26 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="P35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q35" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="N35" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q35" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="R35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6626,7 +6616,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6641,13 +6631,13 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>178</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>82</v>
@@ -6658,10 +6648,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6684,19 +6674,19 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6733,10 +6723,10 @@
         <v>82</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>82</v>
@@ -6745,7 +6735,7 @@
         <v>139</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6760,16 +6750,16 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6777,13 +6767,13 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>82</v>
@@ -6805,19 +6795,19 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="O37" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6866,7 +6856,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6881,16 +6871,16 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6898,10 +6888,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7013,10 +7003,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7130,10 +7120,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7159,16 +7149,16 @@
         <v>110</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7178,7 +7168,7 @@
         <v>82</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>82</v>
@@ -7196,10 +7186,10 @@
         <v>189</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -7217,7 +7207,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7232,7 +7222,7 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
@@ -7241,7 +7231,7 @@
         <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7249,10 +7239,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7278,16 +7268,16 @@
         <v>174</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O41" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7336,7 +7326,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7351,7 +7341,7 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
@@ -7360,7 +7350,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7368,14 +7358,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7397,13 +7387,13 @@
         <v>174</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7453,7 +7443,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7468,7 +7458,7 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>82</v>
@@ -7477,7 +7467,7 @@
         <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7485,10 +7475,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7514,10 +7504,10 @@
         <v>174</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7600,10 +7590,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7629,10 +7619,10 @@
         <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7713,13 +7703,13 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>82</v>
@@ -7741,13 +7731,13 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7830,10 +7820,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7859,10 +7849,10 @@
         <v>174</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7886,7 +7876,7 @@
         <v>82</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="X46" t="s" s="2">
         <v>82</v>
@@ -7913,7 +7903,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7945,14 +7935,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7974,13 +7964,13 @@
         <v>174</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8030,7 +8020,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8045,7 +8035,7 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>82</v>
@@ -8054,7 +8044,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8062,10 +8052,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8091,10 +8081,10 @@
         <v>174</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8145,7 +8135,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8160,7 +8150,7 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>82</v>
@@ -8169,7 +8159,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8177,10 +8167,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8206,10 +8196,10 @@
         <v>174</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8260,7 +8250,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8275,7 +8265,7 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>82</v>
@@ -8284,7 +8274,7 @@
         <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8292,10 +8282,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8318,17 +8308,17 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8377,7 +8367,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8392,7 +8382,7 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>82</v>
@@ -8401,7 +8391,7 @@
         <v>82</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8409,13 +8399,13 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>82</v>
@@ -8437,19 +8427,19 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="O51" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8498,7 +8488,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8513,16 +8503,16 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8530,10 +8520,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8645,10 +8635,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8762,10 +8752,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8791,16 +8781,16 @@
         <v>110</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8810,7 +8800,7 @@
         <v>82</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>82</v>
@@ -8828,10 +8818,10 @@
         <v>189</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
@@ -8849,7 +8839,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8864,7 +8854,7 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>82</v>
@@ -8873,7 +8863,7 @@
         <v>82</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8881,10 +8871,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8910,16 +8900,16 @@
         <v>174</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8968,7 +8958,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8983,7 +8973,7 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>82</v>
@@ -8992,7 +8982,7 @@
         <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9000,14 +8990,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -9029,13 +9019,13 @@
         <v>174</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9085,7 +9075,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9100,7 +9090,7 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>82</v>
@@ -9109,7 +9099,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -9117,14 +9107,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9146,13 +9136,13 @@
         <v>174</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9202,7 +9192,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9217,7 +9207,7 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>82</v>
@@ -9226,7 +9216,7 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9234,10 +9224,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9263,10 +9253,10 @@
         <v>174</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9317,7 +9307,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9332,7 +9322,7 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>82</v>
@@ -9341,7 +9331,7 @@
         <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9349,10 +9339,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9378,10 +9368,10 @@
         <v>174</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9432,7 +9422,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9447,7 +9437,7 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>82</v>
@@ -9456,7 +9446,7 @@
         <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9464,10 +9454,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9490,17 +9480,17 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9549,7 +9539,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9564,7 +9554,7 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>82</v>
@@ -9573,7 +9563,7 @@
         <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9581,10 +9571,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9607,19 +9597,19 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9668,7 +9658,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9683,16 +9673,16 @@
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9700,10 +9690,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9815,10 +9805,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9932,10 +9922,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9961,10 +9951,10 @@
         <v>110</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9994,10 +9984,10 @@
         <v>189</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -10015,7 +10005,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10024,13 +10014,13 @@
         <v>90</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>82</v>
@@ -10039,7 +10029,7 @@
         <v>82</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10047,10 +10037,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10076,16 +10066,16 @@
         <v>174</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10134,7 +10124,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10149,7 +10139,7 @@
         <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>82</v>
@@ -10158,7 +10148,7 @@
         <v>82</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10166,10 +10156,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10195,16 +10185,16 @@
         <v>110</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="O66" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10233,7 +10223,7 @@
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10251,7 +10241,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10266,7 +10256,7 @@
         <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>82</v>
@@ -10275,7 +10265,7 @@
         <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10283,10 +10273,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10309,16 +10299,16 @@
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10368,7 +10358,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10400,10 +10390,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10426,13 +10416,13 @@
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10483,7 +10473,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10498,7 +10488,7 @@
         <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>82</v>
@@ -10515,10 +10505,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10544,16 +10534,16 @@
         <v>110</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="O69" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10581,10 +10571,10 @@
         <v>189</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
@@ -10602,7 +10592,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10617,16 +10607,16 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10634,10 +10624,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10660,19 +10650,19 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="O70" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10721,7 +10711,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10736,27 +10726,27 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AO70" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>490</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10779,19 +10769,19 @@
         <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10840,7 +10830,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10855,7 +10845,7 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>178</v>
@@ -10864,7 +10854,7 @@
         <v>82</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10872,10 +10862,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10898,19 +10888,19 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10959,7 +10949,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10974,7 +10964,7 @@
         <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>82</v>
@@ -10983,7 +10973,7 @@
         <v>82</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -10991,10 +10981,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11020,14 +11010,14 @@
         <v>195</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11055,10 +11045,10 @@
         <v>200</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
@@ -11076,7 +11066,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11091,16 +11081,16 @@
         <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11108,10 +11098,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11134,19 +11124,19 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11195,7 +11185,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11210,7 +11200,7 @@
         <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>178</v>
@@ -11219,7 +11209,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11227,10 +11217,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11253,19 +11243,19 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11314,7 +11304,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11329,7 +11319,7 @@
         <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>178</v>
@@ -11338,7 +11328,7 @@
         <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11346,10 +11336,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11372,19 +11362,19 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="O76" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11433,7 +11423,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11445,10 +11435,10 @@
         <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>178</v>
@@ -11465,10 +11455,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11580,10 +11570,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11693,13 +11683,13 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>82</v>
@@ -11721,13 +11711,13 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11810,14 +11800,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11839,10 +11829,10 @@
         <v>135</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="N80" t="s" s="2">
         <v>160</v>
@@ -11897,7 +11887,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11929,10 +11919,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11958,14 +11948,14 @@
         <v>195</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -11993,10 +11983,10 @@
         <v>189</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
@@ -12014,7 +12004,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12029,7 +12019,7 @@
         <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>178</v>
@@ -12038,7 +12028,7 @@
         <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12046,10 +12036,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12161,10 +12151,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12278,10 +12268,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12304,19 +12294,19 @@
         <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="O84" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
@@ -12365,7 +12355,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12380,7 +12370,7 @@
         <v>102</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>82</v>
@@ -12389,7 +12379,7 @@
         <v>82</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12397,10 +12387,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12426,16 +12416,16 @@
         <v>174</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O85" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12484,7 +12474,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12499,7 +12489,7 @@
         <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>82</v>
@@ -12508,7 +12498,7 @@
         <v>82</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12516,10 +12506,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12542,17 +12532,17 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12601,7 +12591,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12616,7 +12606,7 @@
         <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>178</v>
@@ -12625,7 +12615,7 @@
         <v>82</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12633,10 +12623,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12748,10 +12738,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12865,10 +12855,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12894,16 +12884,16 @@
         <v>110</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="O89" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -12913,7 +12903,7 @@
         <v>82</v>
       </c>
       <c r="S89" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="T89" t="s" s="2">
         <v>82</v>
@@ -12931,10 +12921,10 @@
         <v>189</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>82</v>
@@ -12952,7 +12942,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12967,7 +12957,7 @@
         <v>102</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>82</v>
@@ -12976,7 +12966,7 @@
         <v>82</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -12984,10 +12974,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13013,16 +13003,16 @@
         <v>174</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O90" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13071,7 +13061,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13086,7 +13076,7 @@
         <v>102</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>82</v>
@@ -13095,7 +13085,7 @@
         <v>82</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13103,14 +13093,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13132,13 +13122,13 @@
         <v>174</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13188,7 +13178,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13203,7 +13193,7 @@
         <v>102</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>82</v>
@@ -13212,7 +13202,7 @@
         <v>82</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13220,10 +13210,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13249,10 +13239,10 @@
         <v>174</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13335,10 +13325,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13364,10 +13354,10 @@
         <v>135</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13448,13 +13438,13 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>82</v>
@@ -13476,13 +13466,13 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13565,10 +13555,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13594,10 +13584,10 @@
         <v>174</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13621,7 +13611,7 @@
         <v>82</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="X95" t="s" s="2">
         <v>82</v>
@@ -13648,7 +13638,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13680,14 +13670,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13709,13 +13699,13 @@
         <v>174</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13765,7 +13755,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13780,7 +13770,7 @@
         <v>102</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>82</v>
@@ -13789,7 +13779,7 @@
         <v>82</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -13797,10 +13787,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13826,10 +13816,10 @@
         <v>174</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13880,7 +13870,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13895,7 +13885,7 @@
         <v>102</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>82</v>
@@ -13904,7 +13894,7 @@
         <v>82</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -13912,10 +13902,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13941,10 +13931,10 @@
         <v>174</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13995,7 +13985,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14010,7 +14000,7 @@
         <v>102</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>82</v>
@@ -14019,7 +14009,7 @@
         <v>82</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14027,10 +14017,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14053,17 +14043,17 @@
         <v>91</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14112,7 +14102,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14127,7 +14117,7 @@
         <v>102</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>82</v>
@@ -14136,7 +14126,7 @@
         <v>82</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14144,10 +14134,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14170,19 +14160,19 @@
         <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14231,7 +14221,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14246,7 +14236,7 @@
         <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>178</v>
@@ -14255,7 +14245,7 @@
         <v>82</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14263,10 +14253,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14289,17 +14279,17 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
@@ -14348,7 +14338,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14363,7 +14353,7 @@
         <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>178</v>
@@ -14372,7 +14362,7 @@
         <v>82</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14380,10 +14370,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14409,14 +14399,14 @@
         <v>110</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14444,10 +14434,10 @@
         <v>189</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>82</v>
@@ -14465,7 +14455,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14480,7 +14470,7 @@
         <v>102</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>178</v>
@@ -14489,7 +14479,7 @@
         <v>82</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14497,10 +14487,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14523,17 +14513,17 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14582,7 +14572,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14591,13 +14581,13 @@
         <v>90</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>178</v>
@@ -14606,7 +14596,7 @@
         <v>82</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14614,10 +14604,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14640,13 +14630,13 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14697,7 +14687,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14712,7 +14702,7 @@
         <v>102</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>178</v>
@@ -14729,10 +14719,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14755,19 +14745,19 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -14816,7 +14806,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -14831,10 +14821,10 @@
         <v>102</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>82</v>
@@ -14848,10 +14838,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14963,10 +14953,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15080,14 +15070,14 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15109,10 +15099,10 @@
         <v>135</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="N108" t="s" s="2">
         <v>160</v>
@@ -15167,7 +15157,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15199,10 +15189,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15228,16 +15218,16 @@
         <v>195</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="O109" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15265,10 +15255,10 @@
         <v>189</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>82</v>
@@ -15286,7 +15276,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>90</v>
@@ -15301,16 +15291,16 @@
         <v>102</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15318,10 +15308,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15344,19 +15334,19 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="O110" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15405,7 +15395,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15420,16 +15410,16 @@
         <v>102</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15437,14 +15427,14 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15463,16 +15453,16 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15522,7 +15512,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15537,7 +15527,7 @@
         <v>102</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>178</v>
@@ -15546,7 +15536,7 @@
         <v>82</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15554,10 +15544,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15669,10 +15659,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15786,10 +15776,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15815,13 +15805,13 @@
         <v>174</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -15871,7 +15861,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -15880,7 +15870,7 @@
         <v>90</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>102</v>
@@ -15903,10 +15893,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15932,13 +15922,13 @@
         <v>104</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -15967,10 +15957,10 @@
         <v>200</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>82</v>
@@ -15988,7 +15978,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16020,10 +16010,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16049,13 +16039,13 @@
         <v>164</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16105,7 +16095,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16120,7 +16110,7 @@
         <v>102</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>82</v>
@@ -16137,10 +16127,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16166,13 +16156,13 @@
         <v>174</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -16222,7 +16212,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16254,10 +16244,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16280,19 +16270,19 @@
         <v>91</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="O118" t="s" s="2">
         <v>673</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16341,7 +16331,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16356,10 +16346,10 @@
         <v>102</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>82</v>
@@ -16373,10 +16363,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16399,19 +16389,19 @@
         <v>91</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="O119" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -16460,7 +16450,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16475,7 +16465,7 @@
         <v>102</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>178</v>
@@ -16492,10 +16482,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16607,10 +16597,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16724,14 +16714,14 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -16753,10 +16743,10 @@
         <v>135</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="N122" t="s" s="2">
         <v>160</v>
@@ -16811,7 +16801,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -16843,10 +16833,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16869,16 +16859,16 @@
         <v>91</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="N123" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -16928,7 +16918,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>90</v>
@@ -16952,7 +16942,7 @@
         <v>82</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -16960,10 +16950,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16989,10 +16979,10 @@
         <v>110</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -17022,10 +17012,10 @@
         <v>189</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>82</v>
@@ -17043,7 +17033,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>90</v>
@@ -17058,7 +17048,7 @@
         <v>102</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>178</v>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-23T21:41:08-04:00</t>
+    <t>2024-06-24T20:56:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T20:56:59-04:00</t>
+    <t>2024-06-25T09:03:09-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T09:03:09-04:00</t>
+    <t>2024-06-25T09:29:41-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T09:29:41-04:00</t>
+    <t>2024-06-26T18:33:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T18:33:17-04:00</t>
+    <t>2024-06-27T08:59:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T08:59:20-04:00</t>
+    <t>2024-07-18T16:07:51-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-18T16:07:51-04:00</t>
+    <t>2024-07-26T10:55:50-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Este Perfil ha sido desarrollado para cubrir las necesidades del Caso de Uso de Receta Electrónica. Sin embargo, se ha modelado con el fin de cubrir las necesidades nacionales de un Recurso Paciente para un Historial Clínico Nacional</t>
+    <t>Este Perfil se ha modelado con el fin de cubrir las necesidades nacionales de un Recurso Paciente para un Historial Clínico Nacional</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-26T10:55:50-04:00</t>
+    <t>2024-07-29T12:24:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.12</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:24:08-04:00</t>
+    <t>2024-08-05T12:01:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-05T12:01:08-04:00</t>
+    <t>2024-08-06T12:35:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1993,7 +1993,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreRolClinicoCl)
 </t>
   </si>
   <si>
@@ -2507,7 +2507,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="139.3359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="202.37890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T12:35:59-04:00</t>
+    <t>2024-08-06T16:31:07-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T16:31:07-04:00</t>
+    <t>2024-08-07T09:55:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T09:55:47-04:00</t>
+    <t>2024-08-07T14:23:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T14:23:12-04:00</t>
+    <t>2024-08-08T12:45:25-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T12:45:25-04:00</t>
+    <t>2024-08-13T08:05:28-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
